--- a/doc/04_外部設計書_A型.xlsx
+++ b/doc/04_外部設計書_A型.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\PLUSDOJO\web開発\PlusDojo6月作成ドキュメントテンプレート\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2052C1-5B4B-418F-96C9-CE7BDF108CE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19F93FD-A427-4471-B197-92275D50C53E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザー登録内容確認" sheetId="8" r:id="rId1"/>
@@ -26,7 +26,18 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'外部設計書 テンプレート'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'外部設計書（土台）'!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -673,6 +684,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -682,8 +694,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -742,13 +760,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2342,16 +2353,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>250031</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19844</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:rowOff>103188</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>178595</xdr:colOff>
+      <xdr:colOff>202408</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2366,8 +2377,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4905375" y="2547938"/>
-          <a:ext cx="1571626" cy="500062"/>
+          <a:off x="4591844" y="2579688"/>
+          <a:ext cx="1452564" cy="500062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2666,16 +2677,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>107155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>35718</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>35718</xdr:rowOff>
+      <xdr:rowOff>154780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2690,8 +2701,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5393531" y="1512093"/>
-          <a:ext cx="666750" cy="428625"/>
+          <a:off x="3746500" y="1631155"/>
+          <a:ext cx="607218" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2727,6 +2738,94 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>39687</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>103188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>222251</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39F53FEB-07DC-445B-B549-4C22DAA7A547}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4611687" y="1627188"/>
+          <a:ext cx="1452564" cy="500062"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>タイトル</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2735,15 +2834,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>106363</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>87313</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2758,8 +2857,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2776538" y="1209675"/>
-          <a:ext cx="5648325" cy="5886450"/>
+          <a:off x="2562225" y="1058863"/>
+          <a:ext cx="5251450" cy="5886450"/>
           <a:chOff x="2776538" y="1209675"/>
           <a:chExt cx="5648325" cy="5886450"/>
         </a:xfrm>
@@ -3570,162 +3669,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359F5869-F0FE-4482-B223-9E91BC1388B8}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AG30" sqref="AG30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="1"/>
+    <col min="1" max="16384" width="3.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="34" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34" t="s">
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="35" t="s">
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="20"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="21" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="21"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="42">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="23">
         <v>45084</v>
       </c>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="22" t="s">
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="27"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="36" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="41"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="44"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -4188,7 +4287,7 @@
       <c r="AM15" s="7"/>
       <c r="AN15" s="7"/>
     </row>
-    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="E16" s="8"/>
@@ -4219,7 +4318,7 @@
       <c r="AD16" s="8"/>
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
-      <c r="AG16" s="44"/>
+      <c r="AG16" s="19"/>
       <c r="AH16" s="8"/>
       <c r="AI16" s="8"/>
       <c r="AJ16" s="8"/>
@@ -4228,7 +4327,7 @@
       <c r="AM16" s="7"/>
       <c r="AN16" s="7"/>
     </row>
-    <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="E17" s="8"/>
@@ -4259,7 +4358,7 @@
       <c r="AD17" s="8"/>
       <c r="AE17" s="8"/>
       <c r="AF17" s="8"/>
-      <c r="AG17" s="44"/>
+      <c r="AG17" s="19"/>
       <c r="AH17" s="8"/>
       <c r="AI17" s="8"/>
       <c r="AJ17" s="8"/>
@@ -4268,7 +4367,7 @@
       <c r="AM17" s="7"/>
       <c r="AN17" s="7"/>
     </row>
-    <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="E18" s="8"/>
@@ -4299,7 +4398,7 @@
       <c r="AD18" s="8"/>
       <c r="AE18" s="8"/>
       <c r="AF18" s="8"/>
-      <c r="AG18" s="44"/>
+      <c r="AG18" s="19"/>
       <c r="AH18" s="8"/>
       <c r="AI18" s="8"/>
       <c r="AJ18" s="8"/>
@@ -4308,7 +4407,7 @@
       <c r="AM18" s="7"/>
       <c r="AN18" s="7"/>
     </row>
-    <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="E19" s="8"/>
@@ -4339,7 +4438,7 @@
       <c r="AD19" s="8"/>
       <c r="AE19" s="8"/>
       <c r="AF19" s="8"/>
-      <c r="AG19" s="44"/>
+      <c r="AG19" s="19"/>
       <c r="AH19" s="8"/>
       <c r="AI19" s="8"/>
       <c r="AJ19" s="8"/>
@@ -4348,7 +4447,7 @@
       <c r="AM19" s="7"/>
       <c r="AN19" s="7"/>
     </row>
-    <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="E20" s="8"/>
@@ -4379,7 +4478,7 @@
       <c r="AD20" s="8"/>
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
-      <c r="AG20" s="44"/>
+      <c r="AG20" s="19"/>
       <c r="AH20" s="8"/>
       <c r="AI20" s="8"/>
       <c r="AJ20" s="8"/>
@@ -8072,6 +8171,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -8079,14 +8185,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -8102,162 +8201,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A08B7C5-ADA7-48A6-B02A-ABDFCEA24998}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AG34" sqref="AG34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="1"/>
+    <col min="1" max="16384" width="3.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="34" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34" t="s">
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="35" t="s">
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="20"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="21" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="21"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="22" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="43">
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="25">
         <v>45084</v>
       </c>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="24"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="27"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="36" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="41"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="44"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -8720,7 +8819,7 @@
       <c r="AM15" s="7"/>
       <c r="AN15" s="7"/>
     </row>
-    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="E16" s="8"/>
@@ -8751,7 +8850,7 @@
       <c r="AD16" s="8"/>
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
-      <c r="AG16" s="44"/>
+      <c r="AG16" s="19"/>
       <c r="AH16" s="8"/>
       <c r="AI16" s="8"/>
       <c r="AJ16" s="8"/>
@@ -8760,7 +8859,7 @@
       <c r="AM16" s="7"/>
       <c r="AN16" s="7"/>
     </row>
-    <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="E17" s="8"/>
@@ -8791,7 +8890,7 @@
       <c r="AD17" s="8"/>
       <c r="AE17" s="8"/>
       <c r="AF17" s="8"/>
-      <c r="AG17" s="44"/>
+      <c r="AG17" s="19"/>
       <c r="AH17" s="8"/>
       <c r="AI17" s="8"/>
       <c r="AJ17" s="8"/>
@@ -8800,7 +8899,7 @@
       <c r="AM17" s="7"/>
       <c r="AN17" s="7"/>
     </row>
-    <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="E18" s="8"/>
@@ -8831,7 +8930,7 @@
       <c r="AD18" s="8"/>
       <c r="AE18" s="8"/>
       <c r="AF18" s="8"/>
-      <c r="AG18" s="44"/>
+      <c r="AG18" s="19"/>
       <c r="AH18" s="8"/>
       <c r="AI18" s="8"/>
       <c r="AJ18" s="8"/>
@@ -8840,7 +8939,7 @@
       <c r="AM18" s="7"/>
       <c r="AN18" s="7"/>
     </row>
-    <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="E19" s="8"/>
@@ -8871,7 +8970,7 @@
       <c r="AD19" s="8"/>
       <c r="AE19" s="8"/>
       <c r="AF19" s="8"/>
-      <c r="AG19" s="44"/>
+      <c r="AG19" s="19"/>
       <c r="AH19" s="8"/>
       <c r="AI19" s="8"/>
       <c r="AJ19" s="8"/>
@@ -8880,7 +8979,7 @@
       <c r="AM19" s="7"/>
       <c r="AN19" s="7"/>
     </row>
-    <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="E20" s="8"/>
@@ -8911,7 +9010,7 @@
       <c r="AD20" s="8"/>
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
-      <c r="AG20" s="44"/>
+      <c r="AG20" s="19"/>
       <c r="AH20" s="8"/>
       <c r="AI20" s="8"/>
       <c r="AJ20" s="8"/>
@@ -12604,6 +12703,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -12611,14 +12717,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -12634,162 +12733,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334B552E-A376-4B74-A57E-1FAFC5C7B864}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AJ16" sqref="AJ16"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="1"/>
+    <col min="1" max="16384" width="3.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="34" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34" t="s">
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="35" t="s">
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="20"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="21" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="21"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="42">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="23">
         <v>45084</v>
       </c>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="22" t="s">
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="27"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="36" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="41"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="44"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -17136,6 +17235,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -17143,14 +17249,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -17166,162 +17265,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E29" activeCellId="1" sqref="AJ5 E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="1"/>
+    <col min="1" max="16384" width="3.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="34" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34" t="s">
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="35" t="s">
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="20"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="21" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="21"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="42">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="23">
         <v>45084</v>
       </c>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="22" t="s">
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="27"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="36" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="41"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="44"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -21702,152 +21801,152 @@
       <selection activeCell="Y2" sqref="Y2:AE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="1"/>
+    <col min="1" max="16384" width="3.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="34" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="35" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="20"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="21" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="21"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="22" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="27"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="36" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="41"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="44"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -26194,6 +26293,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -26201,14 +26307,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
